--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_3/bcw_train_90_test_10_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_3/bcw_train_90_test_10_depth_3_report.xlsx
@@ -458,39 +458,39 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>B</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.7407407407407407</v>
+        <v>0.9714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.9444444444444444</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8333333333333334</v>
+        <v>0.9577464788732394</v>
       </c>
       <c r="E2" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>B</t>
+          <t>M</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8055555555555556</v>
+        <v>0.9523809523809523</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9302325581395349</v>
       </c>
       <c r="E3" t="n">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4">
@@ -500,16 +500,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8537037037037036</v>
+        <v>0.9402597402597402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.878968253968254</v>
+        <v>0.9484126984126984</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8560606060606061</v>
+        <v>0.9439895185063871</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +538,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.8834307992202729</v>
+        <v>0.9484620642515378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8596491228070176</v>
+        <v>0.9473684210526315</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8620414673046253</v>
+        <v>0.9476097712345061</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>

--- a/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_3/bcw_train_90_test_10_depth_3_report.xlsx
+++ b/Breast_Cancer_Wisconsin/outputs/train_90_test_10/depth_3/bcw_train_90_test_10_depth_3_report.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9714285714285714</v>
+        <v>0.97</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9444444444444444</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9577464788732394</v>
+        <v>0.96</v>
       </c>
       <c r="E2" t="n">
         <v>36</v>
@@ -481,13 +481,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.91</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9523809523809523</v>
+        <v>0.95</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9302325581395349</v>
+        <v>0.93</v>
       </c>
       <c r="E3" t="n">
         <v>21</v>
@@ -499,17 +499,13 @@
           <t>accuracy</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0.9473684210526315</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9473684210526315</v>
-      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9473684210526315</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +515,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9402597402597402</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9484126984126984</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9439895185063871</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>57</v>
@@ -538,13 +534,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9484620642515378</v>
+        <v>0.95</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9476097712345061</v>
+        <v>0.95</v>
       </c>
       <c r="E6" t="n">
         <v>57</v>
